--- a/Documents/Databese Requirement.xlsx
+++ b/Documents/Databese Requirement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\Asset_Management_System\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C28A684-65E1-4E7C-8C42-F2406B0998F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030A75A9-7BC1-4177-BE33-AE7295C0A31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B0B0B7D4-6A70-4D9D-9B3D-42C3754062EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
   <si>
     <t>Category</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Return_Prtoduct</t>
+  </si>
+  <si>
+    <t>Return_Date</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DA4CE1-D1A5-4953-A841-D7FF5EA20E4E}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,10 +538,10 @@
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
     <col min="7" max="7" width="36.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,8 +563,11 @@
       <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -580,8 +589,11 @@
       <c r="G2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -603,8 +615,11 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -626,8 +641,11 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -649,8 +667,11 @@
       <c r="G5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="G6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -695,8 +719,11 @@
       <c r="G7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -715,8 +742,11 @@
       <c r="G8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -732,8 +762,11 @@
       <c r="G9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>30</v>
       </c>
@@ -746,8 +779,11 @@
       <c r="G10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>30</v>
       </c>
@@ -757,44 +793,67 @@
       <c r="G11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>25</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>3</v>
       </c>
       <c r="G13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>28</v>
       </c>
       <c r="G14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>29</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>30</v>
       </c>
       <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Documents/Databese Requirement.xlsx
+++ b/Documents/Databese Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\Asset_Management_System\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030A75A9-7BC1-4177-BE33-AE7295C0A31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A39E2B-195C-4C90-870E-3A10F9353EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B0B0B7D4-6A70-4D9D-9B3D-42C3754062EF}"/>
   </bookViews>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DA4CE1-D1A5-4953-A841-D7FF5EA20E4E}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Databese Requirement.xlsx
+++ b/Documents/Databese Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\Asset_Management_System\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A39E2B-195C-4C90-870E-3A10F9353EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48ACE3C-FA7E-4FAD-A57F-1BE8B203E058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B0B0B7D4-6A70-4D9D-9B3D-42C3754062EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
   <si>
     <t>Category</t>
   </si>
@@ -141,6 +141,21 @@
   </si>
   <si>
     <t>Return_Date</t>
+  </si>
+  <si>
+    <t>Payment_Table</t>
+  </si>
+  <si>
+    <t>Amount (Data type: Float)</t>
+  </si>
+  <si>
+    <t>Payment_Date</t>
+  </si>
+  <si>
+    <t>Payment_Method</t>
+  </si>
+  <si>
+    <t>Payment_Info_No.</t>
   </si>
 </sst>
 </file>
@@ -523,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DA4CE1-D1A5-4953-A841-D7FF5EA20E4E}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,9 +554,10 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
     <col min="7" max="7" width="36.85546875" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,8 +582,11 @@
       <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -592,8 +611,11 @@
       <c r="H2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -618,8 +640,11 @@
       <c r="H3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -644,8 +669,11 @@
       <c r="H4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -670,8 +698,11 @@
       <c r="H5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -696,8 +727,11 @@
       <c r="H6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -722,8 +756,11 @@
       <c r="H7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -746,7 +783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -766,7 +803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>30</v>
       </c>
@@ -783,7 +820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>30</v>
       </c>
@@ -797,7 +834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>25</v>
       </c>
@@ -808,7 +845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>3</v>
       </c>
@@ -819,7 +856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>28</v>
       </c>
@@ -830,7 +867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>29</v>
       </c>
@@ -841,7 +878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>30</v>
       </c>

--- a/Documents/Databese Requirement.xlsx
+++ b/Documents/Databese Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\Asset_Management_System\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48ACE3C-FA7E-4FAD-A57F-1BE8B203E058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C853F3-B743-47A4-8C7D-177ADE3CB113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B0B0B7D4-6A70-4D9D-9B3D-42C3754062EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="44">
   <si>
     <t>Category</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Payment_Table</t>
   </si>
   <si>
-    <t>Amount (Data type: Float)</t>
-  </si>
-  <si>
     <t>Payment_Date</t>
   </si>
   <si>
@@ -156,6 +153,21 @@
   </si>
   <si>
     <t>Payment_Info_No.</t>
+  </si>
+  <si>
+    <t>Amount (Data type: Float): Debit &amp; Credit</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Product_ID FK (The OK from Purchased_Prtoduct)</t>
+  </si>
+  <si>
+    <t>Remarks (Nullable)</t>
+  </si>
+  <si>
+    <t>Invoice (Nullable)</t>
   </si>
 </sst>
 </file>
@@ -554,7 +566,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
     <col min="7" max="7" width="36.85546875" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -670,7 +682,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -699,7 +711,7 @@
         <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -728,7 +740,7 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -757,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -782,6 +794,9 @@
       <c r="H8" t="s">
         <v>20</v>
       </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
@@ -802,6 +817,9 @@
       <c r="H9" t="s">
         <v>21</v>
       </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
@@ -818,6 +836,9 @@
       </c>
       <c r="H10" t="s">
         <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">

--- a/Documents/Databese Requirement.xlsx
+++ b/Documents/Databese Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\Asset_Management_System\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C853F3-B743-47A4-8C7D-177ADE3CB113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D702C0-BDE2-4CDF-BEDE-851B290D9640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B0B0B7D4-6A70-4D9D-9B3D-42C3754062EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
   <si>
     <t>Category</t>
   </si>
@@ -155,12 +155,6 @@
     <t>Payment_Info_No.</t>
   </si>
   <si>
-    <t>Amount (Data type: Float): Debit &amp; Credit</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
     <t>Product_ID FK (The OK from Purchased_Prtoduct)</t>
   </si>
   <si>
@@ -168,6 +162,12 @@
   </si>
   <si>
     <t>Invoice (Nullable)</t>
+  </si>
+  <si>
+    <t>Amount_Debit</t>
+  </si>
+  <si>
+    <t>Amount_Credit</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +682,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -740,7 +740,7 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -769,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -795,7 +795,7 @@
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -838,7 +838,7 @@
         <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -853,6 +853,9 @@
       </c>
       <c r="H11" t="s">
         <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">

--- a/Documents/Databese Requirement.xlsx
+++ b/Documents/Databese Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\Asset_Management_System\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D702C0-BDE2-4CDF-BEDE-851B290D9640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112DBD3E-9ABC-48D9-9BA5-A36151110AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B0B0B7D4-6A70-4D9D-9B3D-42C3754062EF}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Databese Requirement.xlsx
+++ b/Documents/Databese Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\Asset_Management_System\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112DBD3E-9ABC-48D9-9BA5-A36151110AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502E6E38-9228-47FF-98E4-0E0938A17412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B0B0B7D4-6A70-4D9D-9B3D-42C3754062EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
   <si>
     <t>Category</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>Amount_Credit</t>
+  </si>
+  <si>
+    <t>status (Binary value)</t>
+  </si>
+  <si>
+    <t>role (Binary value)</t>
   </si>
 </sst>
 </file>
@@ -552,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DA4CE1-D1A5-4953-A841-D7FF5EA20E4E}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,6 +848,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
       <c r="E11" t="s">
         <v>30</v>
       </c>
@@ -859,6 +868,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
       <c r="F12" t="s">
         <v>25</v>
       </c>

--- a/Documents/Databese Requirement.xlsx
+++ b/Documents/Databese Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\Asset_Management_System\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502E6E38-9228-47FF-98E4-0E0938A17412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F62C47-E4F7-4C05-8F97-38B8B5347781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B0B0B7D4-6A70-4D9D-9B3D-42C3754062EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
   <si>
     <t>Category</t>
   </si>
@@ -149,31 +149,22 @@
     <t>Payment_Date</t>
   </si>
   <si>
-    <t>Payment_Method</t>
-  </si>
-  <si>
     <t>Payment_Info_No.</t>
   </si>
   <si>
-    <t>Product_ID FK (The OK from Purchased_Prtoduct)</t>
-  </si>
-  <si>
     <t>Remarks (Nullable)</t>
   </si>
   <si>
-    <t>Invoice (Nullable)</t>
-  </si>
-  <si>
-    <t>Amount_Debit</t>
-  </si>
-  <si>
-    <t>Amount_Credit</t>
-  </si>
-  <si>
     <t>status (Binary value)</t>
   </si>
   <si>
     <t>role (Binary value)</t>
+  </si>
+  <si>
+    <t>Payment_Method (Check/Cash/Transfer/Deposit)</t>
+  </si>
+  <si>
+    <t>Debit_Amount</t>
   </si>
 </sst>
 </file>
@@ -558,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DA4CE1-D1A5-4953-A841-D7FF5EA20E4E}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +650,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -688,7 +679,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -717,7 +708,7 @@
         <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -746,7 +737,7 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -824,7 +815,7 @@
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -844,12 +835,12 @@
         <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -864,12 +855,12 @@
         <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -879,6 +870,9 @@
       </c>
       <c r="H12" t="s">
         <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">

--- a/Documents/Databese Requirement.xlsx
+++ b/Documents/Databese Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\Asset_Management_System\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F62C47-E4F7-4C05-8F97-38B8B5347781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9420C4C9-8F95-403D-9729-F59C6F212988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B0B0B7D4-6A70-4D9D-9B3D-42C3754062EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
   <si>
     <t>Category</t>
   </si>
@@ -550,7 +550,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +650,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
         <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
         <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
         <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -884,6 +884,9 @@
       </c>
       <c r="H13" t="s">
         <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">

--- a/Documents/Databese Requirement.xlsx
+++ b/Documents/Databese Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\Asset_Management_System\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9420C4C9-8F95-403D-9729-F59C6F212988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCEBFE1-79B4-4796-8EC2-D0AC262B3AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B0B0B7D4-6A70-4D9D-9B3D-42C3754062EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
   <si>
     <t>Category</t>
   </si>
@@ -165,6 +165,27 @@
   </si>
   <si>
     <t>Debit_Amount</t>
+  </si>
+  <si>
+    <t>Serial_Number</t>
+  </si>
+  <si>
+    <t>Purchase_Serial_Num</t>
+  </si>
+  <si>
+    <t>is_sold</t>
+  </si>
+  <si>
+    <t>Purchase_Return_Date</t>
+  </si>
+  <si>
+    <t>Warranty_Return_Date</t>
+  </si>
+  <si>
+    <t>Sales_Return_Date</t>
+  </si>
+  <si>
+    <t>Warranty</t>
   </si>
 </sst>
 </file>
@@ -547,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DA4CE1-D1A5-4953-A841-D7FF5EA20E4E}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,10 +584,12 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
     <col min="7" max="7" width="36.85546875" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" customWidth="1"/>
-    <col min="9" max="9" width="43.7109375" customWidth="1"/>
+    <col min="9" max="9" width="49.140625" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,8 +617,14 @@
       <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -623,8 +652,14 @@
       <c r="I2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -652,8 +687,14 @@
       <c r="I3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -681,8 +722,14 @@
       <c r="I4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -710,8 +757,11 @@
       <c r="I5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -739,8 +789,11 @@
       <c r="I6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -768,8 +821,14 @@
       <c r="I7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -794,8 +853,14 @@
       <c r="I8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -817,8 +882,14 @@
       <c r="I9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>30</v>
       </c>
@@ -837,8 +908,14 @@
       <c r="I10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>39</v>
       </c>
@@ -857,8 +934,14 @@
       <c r="I11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>40</v>
       </c>
@@ -874,8 +957,14 @@
       <c r="I12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>3</v>
       </c>
@@ -889,7 +978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>28</v>
       </c>
@@ -900,7 +989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>29</v>
       </c>
@@ -911,7 +1000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>30</v>
       </c>

--- a/Documents/Databese Requirement.xlsx
+++ b/Documents/Databese Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\Asset_Management_System\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCEBFE1-79B4-4796-8EC2-D0AC262B3AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7D55A2-A545-4457-95D4-5BB9125E6D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B0B0B7D4-6A70-4D9D-9B3D-42C3754062EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="63">
   <si>
     <t>Category</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Return_Prtoduct</t>
-  </si>
-  <si>
     <t>Return_Date</t>
   </si>
   <si>
@@ -167,25 +164,67 @@
     <t>Debit_Amount</t>
   </si>
   <si>
-    <t>Serial_Number</t>
-  </si>
-  <si>
-    <t>Purchase_Serial_Num</t>
-  </si>
-  <si>
-    <t>is_sold</t>
-  </si>
-  <si>
-    <t>Purchase_Return_Date</t>
-  </si>
-  <si>
     <t>Warranty_Return_Date</t>
   </si>
   <si>
-    <t>Sales_Return_Date</t>
-  </si>
-  <si>
-    <t>Warranty</t>
+    <t>Product_SL</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Purchase_Return</t>
+  </si>
+  <si>
+    <t>In_stock -0</t>
+  </si>
+  <si>
+    <t>is_Sold-1</t>
+  </si>
+  <si>
+    <t>Return-2</t>
+  </si>
+  <si>
+    <t>Damage-3</t>
+  </si>
+  <si>
+    <t>Product_SL_FK</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Total_Price</t>
+  </si>
+  <si>
+    <t>Purchase_Damage</t>
+  </si>
+  <si>
+    <t>Model_SL</t>
+  </si>
+  <si>
+    <t>is_damage</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Purchase_Serial_Num_FK</t>
+  </si>
+  <si>
+    <t>DateOfSendVendor</t>
+  </si>
+  <si>
+    <t>Chage_SL</t>
+  </si>
+  <si>
+    <t>Warranty_Replace_SL_FK</t>
+  </si>
+  <si>
+    <t>Purchase_Warranty</t>
+  </si>
+  <si>
+    <t>Sales_Warranty</t>
   </si>
 </sst>
 </file>
@@ -568,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DA4CE1-D1A5-4953-A841-D7FF5EA20E4E}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,14 +621,14 @@
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" customWidth="1"/>
-    <col min="9" max="9" width="49.140625" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" customWidth="1"/>
+    <col min="7" max="8" width="36.85546875" customWidth="1"/>
+    <col min="9" max="10" width="31.7109375" customWidth="1"/>
+    <col min="11" max="11" width="43.7109375" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,19 +651,25 @@
         <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -647,19 +692,25 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -682,19 +733,25 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
       </c>
       <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -717,19 +774,22 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -751,17 +811,23 @@
       <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -783,17 +849,23 @@
       <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
         <v>42</v>
       </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -815,20 +887,23 @@
       <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -847,20 +922,23 @@
       <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -876,20 +954,23 @@
       <c r="G9" t="s">
         <v>22</v>
       </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" t="s">
         <v>3</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>30</v>
       </c>
@@ -903,21 +984,27 @@
         <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
         <v>3</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>28</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -929,21 +1016,24 @@
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
         <v>28</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>29</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -952,19 +1042,22 @@
         <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s">
         <v>29</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>30</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>3</v>
       </c>
@@ -972,47 +1065,50 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>28</v>
       </c>
       <c r="G14" t="s">
         <v>28</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>29</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Documents/Databese Requirement.xlsx
+++ b/Documents/Databese Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\Asset_Management_System\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7D55A2-A545-4457-95D4-5BB9125E6D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0708E3B-242E-4AF7-925F-0032BCBC23F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B0B0B7D4-6A70-4D9D-9B3D-42C3754062EF}"/>
   </bookViews>
@@ -197,9 +197,6 @@
     <t>Total_Price</t>
   </si>
   <si>
-    <t>Purchase_Damage</t>
-  </si>
-  <si>
     <t>Model_SL</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>Sales_Warranty</t>
+  </si>
+  <si>
+    <t>Damage</t>
   </si>
 </sst>
 </file>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DA4CE1-D1A5-4953-A841-D7FF5EA20E4E}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,8 +621,10 @@
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
-    <col min="7" max="8" width="36.85546875" customWidth="1"/>
-    <col min="9" max="10" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
     <col min="11" max="11" width="43.7109375" customWidth="1"/>
     <col min="12" max="12" width="28.5703125" customWidth="1"/>
     <col min="13" max="13" width="26.42578125" customWidth="1"/>
@@ -657,16 +659,16 @@
         <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -739,7 +741,7 @@
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -777,16 +779,16 @@
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -815,16 +817,16 @@
         <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
         <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -897,10 +899,10 @@
         <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -932,10 +934,10 @@
         <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
